--- a/biology/Zoologie/Epicopeiidae/Epicopeiidae.xlsx
+++ b/biology/Zoologie/Epicopeiidae/Epicopeiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Epicopeiidae sont une famille de lépidoptères (papillons) de la super-famille des Geometroidea. Elle regroupe 10 genres et environ 25 espèces[1],[2],[3], originaires de l'Indomalais et de l'Est du Paléarctique[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Epicopeiidae sont une famille de lépidoptères (papillons) de la super-famille des Geometroidea. Elle regroupe 10 genres et environ 25 espèces originaires de l'Indomalais et de l'Est du Paléarctique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Morphologie et mimétisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les papillons de cette famille montrent une grande variété dans leur silhouette et leur ornementation, et sont impliqués dans des anneaux de mimétisme : leur apparence imite celle de papillons d'autres familles, par exemple certains Papilionidae orientaux[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les papillons de cette famille montrent une grande variété dans leur silhouette et leur ornementation, et sont impliqués dans des anneaux de mimétisme : leur apparence imite celle de papillons d'autres familles, par exemple certains Papilionidae orientaux.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amana Walker, 1855
 Burmeia Minet, 2002
@@ -550,7 +566,7 @@
 Deuveia Minet, 2002
 Epicopeia Westwood, 1841
 Nossa Kirby, 1892
-Mimaporia Wei &amp; Yen, 2017[2]
+Mimaporia Wei &amp; Yen, 2017
 Parabraxas Leech, 1897
 Psychostrophia Butler, 1877
 Schistomitra Butler, 1881</t>
